--- a/Finals Project/data/exercice2.xlsx
+++ b/Finals Project/data/exercice2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\License Big Data\Semester 5\Techniques de prevision\notebooks\Finals Project\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9F582F-881A-4F02-876B-8AC0069DB2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="6855" windowHeight="4380"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,11 +83,33 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E31F5E8-12AC-4CB4-B286-1084C31765CE}" name="Table1" displayName="Table1" ref="A1:E109" totalsRowShown="0">
+  <autoFilter ref="A1:E109" xr:uid="{8E31F5E8-12AC-4CB4-B286-1084C31765CE}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{795D6CA8-914B-4EB5-95FB-3C8B695F7B0A}" name="Continente"/>
+    <tableColumn id="2" xr3:uid="{331231EC-B0B1-4320-8B7D-76F7D2A9C232}" name="Dis Mag Value"/>
+    <tableColumn id="3" xr3:uid="{A5D3E322-32B6-479E-A24E-8E59401A935B}" name="nombre total de décès"/>
+    <tableColumn id="4" xr3:uid="{3224EDED-EAEF-47BE-AB55-08DC034D4B37}" name="Total Affecté"/>
+    <tableColumn id="5" xr3:uid="{4E8A4D6A-C097-44E4-8127-8D1FAAFE4631}" name="Total des dommages ('000 US $)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -123,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -155,9 +183,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,6 +235,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -364,23 +428,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -414,7 +478,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -431,7 +495,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -448,7 +512,7 @@
         <v>7310</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -465,7 +529,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -482,7 +546,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -499,7 +563,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -516,7 +580,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -533,7 +597,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -550,7 +614,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -567,7 +631,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -584,7 +648,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -601,7 +665,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -618,7 +682,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -635,7 +699,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -652,7 +716,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -669,7 +733,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -686,7 +750,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -703,7 +767,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -720,7 +784,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -737,7 +801,7 @@
         <v>236400</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -754,7 +818,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -771,7 +835,7 @@
         <v>5600000</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -788,7 +852,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -805,7 +869,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -822,7 +886,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -839,7 +903,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -856,7 +920,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -873,7 +937,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -890,7 +954,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -907,7 +971,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -924,7 +988,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -941,7 +1005,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -958,7 +1022,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -975,7 +1039,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -992,7 +1056,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1009,7 +1073,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1026,7 +1090,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1043,7 +1107,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1060,7 +1124,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1077,7 +1141,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1094,7 +1158,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1111,7 +1175,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1128,7 +1192,7 @@
         <v>131000</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1145,7 +1209,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1162,7 +1226,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1179,7 +1243,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1196,7 +1260,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1213,7 +1277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1230,7 +1294,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1247,7 +1311,7 @@
         <v>530000</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5</v>
       </c>
@@ -1264,7 +1328,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1281,7 +1345,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -1298,7 +1362,7 @@
         <v>55600</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1315,7 +1379,7 @@
         <v>41600</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1332,7 +1396,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1349,7 +1413,7 @@
         <v>553000</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -1366,7 +1430,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1383,7 +1447,7 @@
         <v>845000</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -1400,7 +1464,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -1417,7 +1481,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -1434,7 +1498,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -1451,7 +1515,7 @@
         <v>134000</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1468,7 +1532,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -1485,7 +1549,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
@@ -1502,7 +1566,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -1519,7 +1583,7 @@
         <v>865000</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -1536,7 +1600,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>4</v>
       </c>
@@ -1553,7 +1617,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2</v>
       </c>
@@ -1570,7 +1634,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3</v>
       </c>
@@ -1587,7 +1651,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
@@ -1604,7 +1668,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2</v>
       </c>
@@ -1621,7 +1685,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2</v>
       </c>
@@ -1638,7 +1702,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>4</v>
       </c>
@@ -1655,7 +1719,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>4</v>
       </c>
@@ -1672,7 +1736,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
@@ -1689,7 +1753,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3</v>
       </c>
@@ -1706,7 +1770,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1</v>
       </c>
@@ -1723,7 +1787,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>3</v>
       </c>
@@ -1740,7 +1804,7 @@
         <v>410900</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -1757,7 +1821,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3</v>
       </c>
@@ -1774,7 +1838,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
@@ -1791,7 +1855,7 @@
         <v>745000</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2</v>
       </c>
@@ -1808,7 +1872,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
@@ -1825,7 +1889,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>3</v>
       </c>
@@ -1842,7 +1906,7 @@
         <v>269000</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2</v>
       </c>
@@ -1859,7 +1923,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1</v>
       </c>
@@ -1876,7 +1940,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -1893,7 +1957,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4</v>
       </c>
@@ -1910,7 +1974,7 @@
         <v>245000</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1</v>
       </c>
@@ -1927,7 +1991,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2</v>
       </c>
@@ -1944,7 +2008,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2</v>
       </c>
@@ -1961,7 +2025,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1</v>
       </c>
@@ -1978,7 +2042,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1</v>
       </c>
@@ -1995,7 +2059,7 @@
         <v>416000</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>3</v>
       </c>
@@ -2012,7 +2076,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>3</v>
       </c>
@@ -2029,7 +2093,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2</v>
       </c>
@@ -2046,7 +2110,7 @@
         <v>4104000</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2063,7 +2127,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2080,7 +2144,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
@@ -2097,7 +2161,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
@@ -2114,7 +2178,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2</v>
       </c>
@@ -2131,7 +2195,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -2148,7 +2212,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1</v>
       </c>
@@ -2165,7 +2229,7 @@
         <v>71500</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -2182,7 +2246,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
@@ -2199,7 +2263,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1</v>
       </c>
@@ -2216,7 +2280,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -2235,28 +2299,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Finals Project/data/exercice2.xlsx
+++ b/Finals Project/data/exercice2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\License Big Data\Semester 5\Techniques de prevision\notebooks\Finals Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9F582F-881A-4F02-876B-8AC0069DB2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949D93FD-4B55-4DBF-993F-CF8390936B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,16 @@
     <t>Continente</t>
   </si>
   <si>
-    <t>Dis Mag Value</t>
+    <t>Dis_Mag_Value</t>
   </si>
   <si>
-    <t>nombre total de décès</t>
+    <t>nombre_total_de_deces</t>
   </si>
   <si>
-    <t>Total Affecté</t>
+    <t>Total_des_dommages</t>
   </si>
   <si>
-    <t>Total des dommages ('000 US $)</t>
+    <t>Total_Affecte</t>
   </si>
 </sst>
 </file>
@@ -99,10 +99,10 @@
   <autoFilter ref="A1:E109" xr:uid="{8E31F5E8-12AC-4CB4-B286-1084C31765CE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{795D6CA8-914B-4EB5-95FB-3C8B695F7B0A}" name="Continente"/>
-    <tableColumn id="2" xr3:uid="{331231EC-B0B1-4320-8B7D-76F7D2A9C232}" name="Dis Mag Value"/>
-    <tableColumn id="3" xr3:uid="{A5D3E322-32B6-479E-A24E-8E59401A935B}" name="nombre total de décès"/>
-    <tableColumn id="4" xr3:uid="{3224EDED-EAEF-47BE-AB55-08DC034D4B37}" name="Total Affecté"/>
-    <tableColumn id="5" xr3:uid="{4E8A4D6A-C097-44E4-8127-8D1FAAFE4631}" name="Total des dommages ('000 US $)"/>
+    <tableColumn id="2" xr3:uid="{331231EC-B0B1-4320-8B7D-76F7D2A9C232}" name="Dis_Mag_Value"/>
+    <tableColumn id="3" xr3:uid="{A5D3E322-32B6-479E-A24E-8E59401A935B}" name="nombre_total_de_deces"/>
+    <tableColumn id="4" xr3:uid="{3224EDED-EAEF-47BE-AB55-08DC034D4B37}" name="Total_Affecte"/>
+    <tableColumn id="5" xr3:uid="{4E8A4D6A-C097-44E4-8127-8D1FAAFE4631}" name="Total_des_dommages"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -431,9 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -455,10 +453,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
